--- a/Team-Data/2007-08/4-14-2007-08.xlsx
+++ b/Team-Data/2007-08/4-14-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -759,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -795,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
         <v>24</v>
@@ -807,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -875,19 +942,19 @@
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P3" t="n">
         <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.1</v>
@@ -899,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
@@ -914,7 +981,7 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA3" t="n">
         <v>22.2</v>
@@ -923,10 +990,10 @@
         <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -968,10 +1035,10 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>4</v>
@@ -1135,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1177,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.388</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.435</v>
+        <v>0.431</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U5" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V5" t="n">
         <v>14.6</v>
@@ -1272,7 +1339,7 @@
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1281,16 +1348,16 @@
         <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.2</v>
+        <v>96.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.2</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
@@ -1338,19 +1405,19 @@
         <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.55</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,13 +1479,13 @@
         <v>35.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>19</v>
@@ -1430,16 +1497,16 @@
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R6" t="n">
         <v>13.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
         <v>44.5</v>
@@ -1469,10 +1536,10 @@
         <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,16 +1551,16 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1532,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>14</v>
@@ -1541,10 +1608,10 @@
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>20</v>
@@ -1714,19 +1781,19 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2054,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -2066,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
@@ -2093,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>48</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.593</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.46</v>
@@ -2149,19 +2216,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
@@ -2173,10 +2240,10 @@
         <v>43.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2185,37 +2252,37 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB10" t="n">
         <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2248,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2260,16 +2327,16 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.675</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.449</v>
@@ -2337,70 +2404,70 @@
         <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>21.4</v>
       </c>
       <c r="V11" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB11" t="n">
         <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
@@ -2415,16 +2482,16 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>6</v>
@@ -2433,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2451,10 +2518,10 @@
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2510,37 +2577,37 @@
         <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
         <v>24.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
@@ -2555,7 +2622,7 @@
         <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
         <v>103.6</v>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,16 +2661,16 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2794,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
         <v>16</v>
@@ -2803,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3143,13 +3210,13 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" t="n">
-        <v>0.173</v>
+        <v>0.175</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J16" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
         <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N16" t="n">
         <v>0.357</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R16" t="n">
         <v>9</v>
@@ -3280,19 +3347,19 @@
         <v>4.1</v>
       </c>
       <c r="Z16" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AA16" t="n">
         <v>20.3</v>
       </c>
-      <c r="AA16" t="n">
-        <v>20.2</v>
-      </c>
       <c r="AB16" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>22</v>
@@ -3322,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3355,13 +3422,13 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="n">
-        <v>0.321</v>
+        <v>0.325</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,13 +3493,13 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.733</v>
@@ -3444,10 +3511,10 @@
         <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
         <v>14.7</v>
@@ -3459,22 +3526,22 @@
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3522,13 +3589,13 @@
         <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3543,10 +3610,10 @@
         <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3704,13 +3771,13 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4071,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4151,16 +4218,16 @@
         <v>5.9</v>
       </c>
       <c r="M21" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N21" t="n">
         <v>0.337</v>
       </c>
       <c r="O21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.725</v>
@@ -4169,10 +4236,10 @@
         <v>12.5</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
@@ -4196,40 +4263,40 @@
         <v>20.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
         <v>27</v>
@@ -4247,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,10 +4338,10 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4441,10 +4508,10 @@
         <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4518,19 +4585,19 @@
         <v>11.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="O23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P23" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.707</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
         <v>29</v>
@@ -4539,7 +4606,7 @@
         <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.4</v>
@@ -4548,34 +4615,34 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
         <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -4626,10 +4693,10 @@
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4638,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4670,19 +4737,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n">
         <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="H24" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I24" t="n">
         <v>41.4</v>
@@ -4700,31 +4767,31 @@
         <v>21.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
         <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
         <v>26.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W24" t="n">
         <v>6.5</v>
@@ -4739,28 +4806,28 @@
         <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4817,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -4930,28 +4997,28 @@
         <v>-1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,13 +5027,13 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>10</v>
@@ -4999,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469</v>
+        <v>0.475</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,19 +5119,19 @@
         <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
         <v>0.464</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
         <v>22.2</v>
@@ -5079,10 +5146,10 @@
         <v>10.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
@@ -5100,7 +5167,7 @@
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
@@ -5112,7 +5179,7 @@
         <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,22 +5224,22 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5216,31 +5283,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
         <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M27" t="n">
         <v>19.7</v>
@@ -5261,10 +5328,10 @@
         <v>9.5</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.9</v>
@@ -5285,19 +5352,19 @@
         <v>18.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>5</v>
@@ -5306,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -5315,19 +5382,19 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>9</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5339,10 +5406,10 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5545,13 +5612,13 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
         <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.469</v>
@@ -5631,7 +5698,7 @@
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
@@ -5640,25 +5707,25 @@
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5682,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5706,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
@@ -5715,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>4</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5789,16 +5856,16 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O30" t="n">
         <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
         <v>0.759</v>
@@ -5810,13 +5877,13 @@
         <v>29.4</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,34 +5892,34 @@
         <v>4.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
         <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AC30" t="n">
         <v>7.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5870,13 +5937,13 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5903,7 +5970,7 @@
         <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.531</v>
+        <v>0.525</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.446</v>
@@ -5974,25 +6041,25 @@
         <v>19.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
         <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
         <v>19.6</v>
@@ -6004,7 +6071,7 @@
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,25 +6101,25 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6064,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,10 +6146,10 @@
         <v>7</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2007-08</t>
+          <t>2008-04-14</t>
         </is>
       </c>
     </row>
